--- a/result/result5.xlsx
+++ b/result/result5.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayoun Kim\Desktop\final\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E89A45-1C69-4641-98B8-25D70BB69943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>회사</t>
   </si>
@@ -22,9 +28,6 @@
     <t>펀드유형</t>
   </si>
   <si>
-    <t>상품종류</t>
-  </si>
-  <si>
     <t>펀드명</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>채권형</t>
-  </si>
-  <si>
-    <t>퇴직연금</t>
   </si>
   <si>
     <t>한국투자K-뉴딜증권자투자신탁 1(주식)(S-R)</t>
@@ -169,12 +169,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -182,8 +182,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -229,15 +236,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -279,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +326,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +378,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +571,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,49 +629,46 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>675.68</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2">
-        <v>675.6799999999999</v>
-      </c>
-      <c r="H2">
-        <v>36</v>
-      </c>
       <c r="I2">
-        <v>24</v>
+        <v>-10.61</v>
       </c>
       <c r="J2">
-        <v>-10.61</v>
+        <v>-10.98</v>
       </c>
       <c r="K2">
-        <v>-10.98</v>
+        <v>-28.2</v>
       </c>
       <c r="L2">
-        <v>-28.2</v>
+        <v>-26.53</v>
       </c>
       <c r="M2">
-        <v>-26.53</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -629,500 +679,473 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>45</v>
+      <c r="Q2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>965.14</v>
       </c>
       <c r="G3">
-        <v>965.14</v>
+        <v>174</v>
       </c>
       <c r="H3">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I3">
-        <v>168</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="J3">
-        <v>-4.4</v>
+        <v>-3.71</v>
       </c>
       <c r="K3">
-        <v>-3.71</v>
+        <v>-18.18</v>
       </c>
       <c r="L3">
-        <v>-18.18</v>
+        <v>-23.24</v>
       </c>
       <c r="M3">
-        <v>-23.24</v>
+        <v>21.91</v>
       </c>
       <c r="N3">
-        <v>21.91</v>
+        <v>8.73</v>
       </c>
       <c r="O3">
-        <v>8.73</v>
+        <v>-7.5</v>
       </c>
       <c r="P3">
-        <v>-7.5</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>854.41</v>
       </c>
       <c r="G4">
-        <v>854.41</v>
+        <v>2425</v>
       </c>
       <c r="H4">
-        <v>2425</v>
+        <v>2072</v>
       </c>
       <c r="I4">
-        <v>2072</v>
+        <v>-1.38</v>
       </c>
       <c r="J4">
-        <v>-1.38</v>
+        <v>0.17</v>
       </c>
       <c r="K4">
-        <v>0.17</v>
+        <v>-12.62</v>
       </c>
       <c r="L4">
-        <v>-12.62</v>
+        <v>-22.16</v>
       </c>
       <c r="M4">
-        <v>-22.16</v>
+        <v>9.83</v>
       </c>
       <c r="N4">
-        <v>9.83</v>
+        <v>-1.74</v>
       </c>
       <c r="O4">
-        <v>-1.74</v>
+        <v>-17.420000000000002</v>
       </c>
       <c r="P4">
-        <v>-17.42</v>
-      </c>
-      <c r="Q4">
-        <v>18.67</v>
-      </c>
-      <c r="R4" t="s">
-        <v>45</v>
+        <v>18.670000000000002</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>856.22</v>
       </c>
       <c r="G5">
-        <v>856.22</v>
+        <v>13951</v>
       </c>
       <c r="H5">
-        <v>13951</v>
+        <v>11945</v>
       </c>
       <c r="I5">
-        <v>11945</v>
+        <v>-1.34</v>
       </c>
       <c r="J5">
-        <v>-1.34</v>
+        <v>0.26</v>
       </c>
       <c r="K5">
-        <v>0.26</v>
+        <v>-12.44</v>
       </c>
       <c r="L5">
-        <v>-12.44</v>
+        <v>-21.83</v>
       </c>
       <c r="M5">
-        <v>-21.83</v>
+        <v>10.73</v>
       </c>
       <c r="N5">
-        <v>10.73</v>
+        <v>-0.54</v>
       </c>
       <c r="O5">
-        <v>-0.54</v>
+        <v>-16.059999999999999</v>
       </c>
       <c r="P5">
-        <v>-16.06</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>207</v>
       </c>
       <c r="G6">
-        <v>207</v>
+        <v>2814</v>
       </c>
       <c r="H6">
-        <v>2814</v>
+        <v>583</v>
       </c>
       <c r="I6">
-        <v>583</v>
+        <v>0.73</v>
       </c>
       <c r="J6">
-        <v>0.73</v>
+        <v>-77.959999999999994</v>
       </c>
       <c r="K6">
-        <v>-77.95999999999999</v>
+        <v>-82.92</v>
       </c>
       <c r="L6">
-        <v>-82.92</v>
+        <v>-78.12</v>
       </c>
       <c r="M6">
-        <v>-78.12</v>
+        <v>-66.760000000000005</v>
       </c>
       <c r="N6">
-        <v>-66.76000000000001</v>
+        <v>-73.989999999999995</v>
       </c>
       <c r="O6">
-        <v>-73.98999999999999</v>
+        <v>-71.260000000000005</v>
       </c>
       <c r="P6">
-        <v>-71.26000000000001</v>
-      </c>
-      <c r="Q6">
         <v>-66.69</v>
       </c>
-      <c r="R6" t="s">
-        <v>46</v>
+      <c r="Q6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>208</v>
       </c>
       <c r="G7">
-        <v>208</v>
+        <v>6013</v>
       </c>
       <c r="H7">
-        <v>6013</v>
+        <v>1251</v>
       </c>
       <c r="I7">
-        <v>1251</v>
+        <v>0.77</v>
       </c>
       <c r="J7">
-        <v>0.77</v>
+        <v>-77.930000000000007</v>
       </c>
       <c r="K7">
-        <v>-77.93000000000001</v>
+        <v>-82.86</v>
       </c>
       <c r="L7">
-        <v>-82.86</v>
+        <v>-78</v>
       </c>
       <c r="M7">
-        <v>-78</v>
+        <v>-66.459999999999994</v>
       </c>
       <c r="N7">
-        <v>-66.45999999999999</v>
+        <v>-73.64</v>
       </c>
       <c r="O7">
-        <v>-73.64</v>
+        <v>-70.75</v>
       </c>
       <c r="P7">
-        <v>-70.75</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>317</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>667.78</v>
       </c>
       <c r="G8">
-        <v>667.78</v>
+        <v>48</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I8">
-        <v>32</v>
+        <v>10.8</v>
       </c>
       <c r="J8">
-        <v>10.8</v>
+        <v>-50.1</v>
       </c>
       <c r="K8">
-        <v>-50.1</v>
+        <v>-61.36</v>
       </c>
       <c r="L8">
-        <v>-61.36</v>
+        <v>-52.1</v>
       </c>
       <c r="M8">
-        <v>-52.1</v>
+        <v>-32.54</v>
       </c>
       <c r="N8">
-        <v>-32.54</v>
+        <v>-39.130000000000003</v>
       </c>
       <c r="O8">
-        <v>-39.13</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>318</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>637.35</v>
       </c>
       <c r="G9">
-        <v>637.35</v>
+        <v>1077</v>
       </c>
       <c r="H9">
-        <v>1077</v>
+        <v>686</v>
       </c>
       <c r="I9">
-        <v>686</v>
+        <v>10.82</v>
       </c>
       <c r="J9">
-        <v>10.82</v>
+        <v>-50.02</v>
       </c>
       <c r="K9">
-        <v>-50.02</v>
+        <v>-61.25</v>
       </c>
       <c r="L9">
-        <v>-61.25</v>
+        <v>-51.87</v>
       </c>
       <c r="M9">
-        <v>-51.87</v>
+        <v>-31.97</v>
       </c>
       <c r="N9">
-        <v>-31.97</v>
+        <v>-38.36</v>
       </c>
       <c r="O9">
-        <v>-38.36</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
+      <c r="Q9" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>945.09</v>
       </c>
       <c r="G10">
-        <v>945.09</v>
+        <v>71</v>
       </c>
       <c r="H10">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I10">
-        <v>67</v>
+        <v>-2.37</v>
       </c>
       <c r="J10">
-        <v>-2.37</v>
+        <v>-5.27</v>
       </c>
       <c r="K10">
-        <v>-5.27</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="L10">
-        <v>-5.02</v>
+        <v>-7.73</v>
       </c>
       <c r="M10">
-        <v>-7.73</v>
+        <v>-10.26</v>
       </c>
       <c r="N10">
-        <v>-10.26</v>
+        <v>-6.28</v>
       </c>
       <c r="O10">
-        <v>-6.28</v>
+        <v>2.27</v>
       </c>
       <c r="P10">
-        <v>2.27</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>850.66</v>
       </c>
       <c r="G11">
-        <v>850.66</v>
+        <v>317</v>
       </c>
       <c r="H11">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="I11">
-        <v>270</v>
+        <v>-8.65</v>
       </c>
       <c r="J11">
-        <v>-8.65</v>
+        <v>-14.39</v>
       </c>
       <c r="K11">
-        <v>-14.39</v>
+        <v>-18.09</v>
       </c>
       <c r="L11">
-        <v>-18.09</v>
+        <v>-13.61</v>
       </c>
       <c r="M11">
-        <v>-13.61</v>
+        <v>-14.06</v>
       </c>
       <c r="N11">
-        <v>-14.06</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1130,14 +1153,13 @@
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>49</v>
+      <c r="Q11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>